--- a/src/test/resources/com/xpfriend/fixture/cast/temp/PojoFactoryTest.xlsx
+++ b/src/test/resources/com/xpfriend/fixture/cast/temp/PojoFactoryTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>e|f|g</t>
     <phoneticPr fontId="4"/>
@@ -269,6 +269,48 @@
   </si>
   <si>
     <t>aaa</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Stringを作成できる</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>intを作成できる</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -757,9 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F62"/>
+  <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
@@ -1056,6 +1100,78 @@
         <v>57</v>
       </c>
     </row>
+    <row r="64" spans="2:6" s="7" customFormat="1">
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="D70" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="D71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="7" customFormat="1">
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="C76" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="C79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="D80" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
